--- a/CompetencesCPGE2021.xlsx
+++ b/CompetencesCPGE2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DevoirsDuSoir_Livrets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EvaluationCompetences\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937D7DE5-8749-4F6C-9970-ED154838938F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8ACCCF-9A16-4BD5-B527-8A3F0FD61B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparatif" sheetId="32" r:id="rId1"/>
@@ -22,21 +22,28 @@
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3238" uniqueCount="436">
   <si>
     <t>A1-01</t>
   </si>
@@ -1629,6 +1636,9 @@
   </si>
   <si>
     <t>S2*</t>
+  </si>
+  <si>
+    <t>A SCINDER</t>
   </si>
 </sst>
 </file>
@@ -2095,7 +2105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2450,6 +2460,24 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2465,23 +2493,8 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2872,30 +2885,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="F1" s="130" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="F1" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="K1" s="130" t="s">
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="K1" s="123" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="P1" s="130" t="s">
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="P1" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="58"/>
@@ -3036,7 +3049,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="120" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -3048,7 +3061,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="127" t="s">
+      <c r="H6" s="120" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -3060,7 +3073,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="127" t="s">
+      <c r="M6" s="120" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -3072,7 +3085,7 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="127" t="s">
+      <c r="R6" s="120" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
@@ -3086,7 +3099,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3096,7 +3109,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="128"/>
+      <c r="H7" s="121"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3106,7 +3119,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="128"/>
+      <c r="M7" s="121"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3116,7 +3129,7 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="128"/>
+      <c r="R7" s="121"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3128,7 +3141,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3138,7 +3151,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="128"/>
+      <c r="H8" s="121"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3148,7 +3161,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="128"/>
+      <c r="M8" s="121"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3158,7 +3171,7 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="128"/>
+      <c r="R8" s="121"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3170,7 +3183,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3180,7 +3193,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="129"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3190,7 +3203,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="129"/>
+      <c r="M9" s="122"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3200,7 +3213,7 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="129"/>
+      <c r="R9" s="122"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3246,7 +3259,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="120" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -3258,7 +3271,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="127" t="s">
+      <c r="H11" s="120" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -3270,7 +3283,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="127" t="s">
+      <c r="M11" s="120" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -3282,7 +3295,7 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="127" t="s">
+      <c r="R11" s="120" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
@@ -3296,7 +3309,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3306,7 +3319,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="129"/>
+      <c r="H12" s="122"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3316,7 +3329,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="129"/>
+      <c r="M12" s="122"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3326,7 +3339,7 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="129"/>
+      <c r="R12" s="122"/>
       <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -3420,7 +3433,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="120" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -3432,7 +3445,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="127" t="s">
+      <c r="H15" s="120" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -3444,7 +3457,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="127" t="s">
+      <c r="M15" s="120" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -3456,7 +3469,7 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="127" t="s">
+      <c r="R15" s="120" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
@@ -3470,7 +3483,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3480,7 +3493,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="128"/>
+      <c r="H16" s="121"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3490,7 +3503,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="128"/>
+      <c r="M16" s="121"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3500,7 +3513,7 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="128"/>
+      <c r="R16" s="121"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3512,7 +3525,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3522,7 +3535,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="128"/>
+      <c r="H17" s="121"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3532,7 +3545,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="128"/>
+      <c r="M17" s="121"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3542,7 +3555,7 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="128"/>
+      <c r="R17" s="121"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3554,7 +3567,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3564,7 +3577,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="129"/>
+      <c r="H18" s="122"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3574,7 +3587,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="129"/>
+      <c r="M18" s="122"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3584,7 +3597,7 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="129"/>
+      <c r="R18" s="122"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3780,7 +3793,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="120" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -3800,7 +3813,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -3961,7 +3974,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="120" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -3973,7 +3986,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="127" t="s">
+      <c r="H28" s="120" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -3985,7 +3998,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="127" t="s">
+      <c r="M28" s="120" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -3997,7 +4010,7 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="127" t="s">
+      <c r="R28" s="120" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
@@ -4011,7 +4024,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="128"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4021,7 +4034,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="128"/>
+      <c r="H29" s="121"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4031,7 +4044,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="128"/>
+      <c r="M29" s="121"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4041,7 +4054,7 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="128"/>
+      <c r="R29" s="121"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4053,7 +4066,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="128"/>
+      <c r="C30" s="121"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4063,7 +4076,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="128"/>
+      <c r="H30" s="121"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4073,7 +4086,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="128"/>
+      <c r="M30" s="121"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4083,7 +4096,7 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="128"/>
+      <c r="R30" s="121"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4095,7 +4108,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="129"/>
+      <c r="C31" s="122"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4105,7 +4118,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="129"/>
+      <c r="H31" s="122"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4115,7 +4128,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="129"/>
+      <c r="M31" s="122"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4125,7 +4138,7 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="129"/>
+      <c r="R31" s="122"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4153,7 +4166,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="120" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -4172,7 +4185,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="128"/>
+      <c r="C34" s="121"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -4198,7 +4211,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="129"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -4224,7 +4237,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="120" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -4252,7 +4265,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="128"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -4278,7 +4291,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="129"/>
+      <c r="C38" s="122"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -4393,7 +4406,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="126" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -4405,7 +4418,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="120" t="s">
+      <c r="H42" s="126" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -4417,7 +4430,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="120" t="s">
+      <c r="M42" s="126" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -4429,7 +4442,7 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="120" t="s">
+      <c r="R42" s="126" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
@@ -4443,7 +4456,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="121"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4453,7 +4466,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="121"/>
+      <c r="H43" s="127"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4463,7 +4476,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="122"/>
+      <c r="M43" s="128"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4473,7 +4486,7 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="121"/>
+      <c r="R43" s="127"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4485,7 +4498,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="121"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4495,7 +4508,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="121"/>
+      <c r="H44" s="127"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4515,7 +4528,7 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="121"/>
+      <c r="R44" s="127"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4527,7 +4540,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="122"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4537,7 +4550,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="122"/>
+      <c r="H45" s="128"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4557,7 +4570,7 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="122"/>
+      <c r="R45" s="128"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4653,7 +4666,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="126" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -4665,7 +4678,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="120" t="s">
+      <c r="H48" s="126" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -4677,7 +4690,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="120" t="s">
+      <c r="M48" s="126" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -4689,7 +4702,7 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="120" t="s">
+      <c r="R48" s="126" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
@@ -4703,7 +4716,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="122"/>
+      <c r="C49" s="128"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4713,7 +4726,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="122"/>
+      <c r="H49" s="128"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4723,7 +4736,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="122"/>
+      <c r="M49" s="128"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4733,7 +4746,7 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="122"/>
+      <c r="R49" s="128"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
@@ -5107,7 +5120,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="120" t="s">
+      <c r="C58" s="126" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -5119,7 +5132,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="120" t="s">
+      <c r="H58" s="126" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -5131,7 +5144,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="120" t="s">
+      <c r="M58" s="126" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -5143,7 +5156,7 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="120" t="s">
+      <c r="R58" s="126" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
@@ -5157,7 +5170,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="122"/>
+      <c r="C59" s="128"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5167,7 +5180,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="122"/>
+      <c r="H59" s="128"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5177,7 +5190,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="122"/>
+      <c r="M59" s="128"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5187,7 +5200,7 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="122"/>
+      <c r="R59" s="128"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
@@ -6512,7 +6525,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="123" t="s">
+      <c r="C92" s="129" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -6524,7 +6537,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="123" t="s">
+      <c r="H92" s="129" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -6536,7 +6549,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="123" t="s">
+      <c r="M92" s="129" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -6548,7 +6561,7 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="123" t="s">
+      <c r="R92" s="129" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
@@ -6562,7 +6575,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="124"/>
+      <c r="C93" s="130"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6572,7 +6585,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="124"/>
+      <c r="H93" s="130"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6582,7 +6595,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="124"/>
+      <c r="M93" s="130"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6592,7 +6605,7 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="124"/>
+      <c r="R93" s="130"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
@@ -7487,7 +7500,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="125" t="s">
+      <c r="C117" s="124" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -7499,7 +7512,7 @@
       <c r="G117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H117" s="125" t="s">
+      <c r="H117" s="124" t="s">
         <v>273</v>
       </c>
       <c r="I117" s="53" t="s">
@@ -7511,7 +7524,7 @@
       <c r="L117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="M117" s="125" t="s">
+      <c r="M117" s="124" t="s">
         <v>273</v>
       </c>
       <c r="N117" s="53" t="s">
@@ -7523,7 +7536,7 @@
       <c r="Q117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="R117" s="125" t="s">
+      <c r="R117" s="124" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="53" t="s">
@@ -7537,7 +7550,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="126"/>
+      <c r="C118" s="125"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7547,7 +7560,7 @@
       <c r="G118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H118" s="126"/>
+      <c r="H118" s="125"/>
       <c r="I118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7557,7 +7570,7 @@
       <c r="L118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="M118" s="126"/>
+      <c r="M118" s="125"/>
       <c r="N118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7567,7 +7580,7 @@
       <c r="Q118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R118" s="126"/>
+      <c r="R118" s="125"/>
       <c r="S118" s="53" t="s">
         <v>434</v>
       </c>
@@ -9027,28 +9040,11 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -9065,11 +9061,28 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -9100,12 +9113,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
@@ -9148,7 +9161,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="120" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -9162,7 +9175,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -9174,7 +9187,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -9186,7 +9199,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -9208,7 +9221,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="120" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -9222,7 +9235,7 @@
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -9258,7 +9271,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="120" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -9272,7 +9285,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -9284,7 +9297,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -9296,7 +9309,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -9364,7 +9377,7 @@
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="120" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -9378,7 +9391,7 @@
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="129"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -9428,7 +9441,7 @@
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="120" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -9442,7 +9455,7 @@
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="128"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -9454,7 +9467,7 @@
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="128"/>
+      <c r="C30" s="121"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -9466,7 +9479,7 @@
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="129"/>
+      <c r="C31" s="122"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -9488,7 +9501,7 @@
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="120" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -9502,7 +9515,7 @@
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="128"/>
+      <c r="C34" s="121"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -9514,7 +9527,7 @@
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="129"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -9526,7 +9539,7 @@
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="120" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -9540,7 +9553,7 @@
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="128"/>
+      <c r="C37" s="121"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -9552,7 +9565,7 @@
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="129"/>
+      <c r="C38" s="122"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -9590,7 +9603,7 @@
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="126" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -9604,7 +9617,7 @@
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="121"/>
+      <c r="C43" s="127"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -9616,7 +9629,7 @@
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="121"/>
+      <c r="C44" s="127"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -9628,7 +9641,7 @@
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="122"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -9664,7 +9677,7 @@
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="126" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -9678,7 +9691,7 @@
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="122"/>
+      <c r="C49" s="128"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -9802,7 +9815,7 @@
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="120" t="s">
+      <c r="C58" s="126" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -9816,7 +9829,7 @@
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="122"/>
+      <c r="C59" s="128"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -10250,7 +10263,7 @@
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="123" t="s">
+      <c r="C92" s="129" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -10264,7 +10277,7 @@
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="124"/>
+      <c r="C93" s="130"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -10542,7 +10555,7 @@
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="125" t="s">
+      <c r="C117" s="124" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -10556,7 +10569,7 @@
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="126"/>
+      <c r="C118" s="125"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -11086,12 +11099,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -11099,6 +11106,12 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11107,10 +11120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F752FCB-318B-4B42-BD1B-46C0671C7822}">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
@@ -11123,12 +11136,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -11177,7 +11190,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="120" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -11191,7 +11204,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -11203,7 +11216,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -11215,7 +11228,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -11237,7 +11250,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="120" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -11251,7 +11264,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -11287,7 +11300,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="120" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -11301,7 +11314,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -11313,7 +11326,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -11325,7 +11338,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -11431,7 +11444,7 @@
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="120" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
@@ -11445,7 +11458,7 @@
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -11457,7 +11470,7 @@
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="128"/>
+      <c r="C28" s="121"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -11469,7 +11482,7 @@
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="129"/>
+      <c r="C29" s="122"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -11507,7 +11520,7 @@
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="126" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
@@ -11521,7 +11534,7 @@
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -11533,7 +11546,7 @@
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="121"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -11545,7 +11558,7 @@
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="122"/>
+      <c r="C36" s="128"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
@@ -11581,7 +11594,7 @@
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="126" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
@@ -11595,7 +11608,7 @@
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="122"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
@@ -11705,7 +11718,7 @@
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="120" t="s">
+      <c r="C48" s="126" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -11719,7 +11732,7 @@
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="122"/>
+      <c r="C49" s="128"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
@@ -11910,7 +11923,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="61" t="s">
         <v>63</v>
       </c>
@@ -11924,7 +11937,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A66" s="61" t="s">
         <v>64</v>
       </c>
@@ -11938,7 +11951,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="82" t="s">
         <v>133</v>
       </c>
@@ -11948,7 +11961,7 @@
       <c r="C67" s="83"/>
       <c r="D67" s="84"/>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A68" s="61" t="s">
         <v>66</v>
       </c>
@@ -11962,7 +11975,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="61" t="s">
         <v>67</v>
       </c>
@@ -11976,7 +11989,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" s="18" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A70" s="61" t="s">
         <v>68</v>
       </c>
@@ -11989,8 +12002,11 @@
       <c r="D70" s="52" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E70" s="131" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="61" t="s">
         <v>69</v>
       </c>
@@ -12004,7 +12020,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A72" s="61" t="s">
         <v>70</v>
       </c>
@@ -12018,7 +12034,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="61" t="s">
         <v>71</v>
       </c>
@@ -12032,7 +12048,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A74" s="61" t="s">
         <v>72</v>
       </c>
@@ -12046,33 +12062,36 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C75" s="123" t="s">
+      <c r="C75" s="129" t="s">
         <v>427</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E75" s="131" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="124"/>
+      <c r="C76" s="130"/>
       <c r="D76" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="82" t="s">
         <v>132</v>
       </c>
@@ -12082,7 +12101,7 @@
       <c r="C77" s="83"/>
       <c r="D77" s="84"/>
     </row>
-    <row r="78" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A78" s="61" t="s">
         <v>77</v>
       </c>
@@ -12096,7 +12115,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A79" s="61" t="s">
         <v>78</v>
       </c>
@@ -12110,7 +12129,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A80" s="61" t="s">
         <v>79</v>
       </c>
@@ -12322,7 +12341,7 @@
       <c r="B98" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="125" t="s">
+      <c r="C98" s="124" t="s">
         <v>273</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -12336,7 +12355,7 @@
       <c r="B99" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C99" s="126"/>
+      <c r="C99" s="125"/>
       <c r="D99" s="53" t="s">
         <v>175</v>
       </c>
@@ -12746,16 +12765,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C98:C99"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C33:C36"/>
     <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12780,12 +12799,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="123" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -12834,7 +12853,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="120" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -12848,7 +12867,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -12860,7 +12879,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -12872,7 +12891,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -12894,7 +12913,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="120" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -12908,7 +12927,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -12944,7 +12963,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="120" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -12958,7 +12977,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -12970,7 +12989,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -12982,7 +13001,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -13074,7 +13093,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="120" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -13088,7 +13107,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -13100,7 +13119,7 @@
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -13112,7 +13131,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -13150,7 +13169,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="126" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -13164,7 +13183,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="122"/>
+      <c r="C33" s="128"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -13224,7 +13243,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="126" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -13238,7 +13257,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="122"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -13334,7 +13353,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="126" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -13348,7 +13367,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="122"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -13682,7 +13701,7 @@
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="123" t="s">
+      <c r="C73" s="129" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
@@ -13696,7 +13715,7 @@
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="124"/>
+      <c r="C74" s="130"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
@@ -13951,7 +13970,7 @@
       <c r="B96" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="125" t="s">
+      <c r="C96" s="124" t="s">
         <v>273</v>
       </c>
       <c r="D96" s="53" t="s">
@@ -13965,7 +13984,7 @@
       <c r="B97" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="126"/>
+      <c r="C97" s="125"/>
       <c r="D97" s="53" t="s">
         <v>175</v>
       </c>
@@ -14497,16 +14516,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14531,12 +14550,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
@@ -14585,7 +14604,7 @@
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="127" t="s">
+      <c r="C6" s="120" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -14599,7 +14618,7 @@
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -14611,7 +14630,7 @@
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -14623,7 +14642,7 @@
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="129"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -14645,7 +14664,7 @@
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="120" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -14659,7 +14678,7 @@
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="129"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -14693,7 +14712,7 @@
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="120" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -14707,7 +14726,7 @@
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="128"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -14719,7 +14738,7 @@
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="128"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -14731,7 +14750,7 @@
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="129"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -14823,7 +14842,7 @@
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="120" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
@@ -14837,7 +14856,7 @@
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="121"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
@@ -14849,7 +14868,7 @@
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="128"/>
+      <c r="C27" s="121"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
@@ -14861,7 +14880,7 @@
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="129"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
@@ -14899,7 +14918,7 @@
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="126" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -14913,7 +14932,7 @@
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="121"/>
+      <c r="C33" s="127"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
@@ -14925,7 +14944,7 @@
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="127"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
@@ -14937,7 +14956,7 @@
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="128"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
@@ -14973,7 +14992,7 @@
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="120" t="s">
+      <c r="C38" s="126" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
@@ -14987,7 +15006,7 @@
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="122"/>
+      <c r="C39" s="128"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
@@ -15083,7 +15102,7 @@
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="120" t="s">
+      <c r="C46" s="126" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
@@ -15097,7 +15116,7 @@
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="122"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
@@ -15417,7 +15436,7 @@
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="123" t="s">
+      <c r="C72" s="129" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
@@ -15431,7 +15450,7 @@
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="124"/>
+      <c r="C73" s="130"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
@@ -15662,7 +15681,7 @@
       <c r="B93" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="125" t="s">
+      <c r="C93" s="124" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="53" t="s">
@@ -15676,7 +15695,7 @@
       <c r="B94" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="126"/>
+      <c r="C94" s="125"/>
       <c r="D94" s="53" t="s">
         <v>434</v>
       </c>
@@ -16034,16 +16053,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C6:C9"/>
     <mergeCell ref="C93:C94"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C6:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
